--- a/data/trans_dic/P69$dolorEspalda-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorEspalda-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.9032359748085499</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.8624421088814974</v>
+        <v>0.8624421088814973</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8211141159184516</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7086926430153168</v>
+        <v>0.7061860168436219</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7247134147930155</v>
+        <v>0.738385892602633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7055839188041512</v>
+        <v>0.7209523969739998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7737313861798395</v>
+        <v>0.7834515299480086</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7177603875841378</v>
+        <v>0.7245863109914616</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.696035618547615</v>
+        <v>0.6907809618854336</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8162469715488434</v>
+        <v>0.8081290639306764</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7493533043104708</v>
+        <v>0.7420233452155395</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7413443097020727</v>
+        <v>0.7463318998555827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7532944422201363</v>
+        <v>0.7541805427961263</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7853171853366673</v>
+        <v>0.7784844261320596</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8041059504380972</v>
+        <v>0.8012121638837929</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8746918627167157</v>
+        <v>0.8803969765727813</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9081860173594982</v>
+        <v>0.9144058470789662</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8893608391580322</v>
+        <v>0.8952356786826827</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9493384893600821</v>
+        <v>0.9489899030729712</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9322047481847781</v>
+        <v>0.9342032851107356</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8961654201486962</v>
+        <v>0.8946552863782715</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9559385423964647</v>
+        <v>0.9553723372917572</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9299696145542012</v>
+        <v>0.9329455630714841</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8817023448541681</v>
+        <v>0.887935465974275</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8846060421372427</v>
+        <v>0.8827839980898424</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9068150078330828</v>
+        <v>0.9045820204928747</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9241862419216131</v>
+        <v>0.932345039241383</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8345984669451565</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8237036488325995</v>
+        <v>0.8237036488325996</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8238023478660906</v>
@@ -833,7 +833,7 @@
         <v>0.8415060478547458</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.8424359851213012</v>
+        <v>0.8424359851213014</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6990385760850759</v>
+        <v>0.7048030511256452</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6053220045089367</v>
+        <v>0.5965504145983389</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7473157663596535</v>
+        <v>0.75511224290988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7394913800626387</v>
+        <v>0.7437040281827095</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7130103105438582</v>
+        <v>0.7178287564155841</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7902299488035356</v>
+        <v>0.7975766381256031</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7290653965622869</v>
+        <v>0.734135041442281</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.796636502245923</v>
+        <v>0.7925093719421532</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7302351464381198</v>
+        <v>0.7335299176679645</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7126199462565846</v>
+        <v>0.7105271098022198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7759043581123294</v>
+        <v>0.7779230237784214</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7900474221514682</v>
+        <v>0.7902825167859056</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8284416203209658</v>
+        <v>0.8330618779000328</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7867793117097924</v>
+        <v>0.7842238961993254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8989122053200193</v>
+        <v>0.9024387773625795</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8863388347460845</v>
+        <v>0.886432355005026</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9079213125703079</v>
+        <v>0.9103137234810519</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9668570984600421</v>
+        <v>0.9672108383537461</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9306441407837607</v>
+        <v>0.9328054141050648</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9165496301545021</v>
+        <v>0.9152744247551517</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8386837889111655</v>
+        <v>0.838995685070255</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8461727028231543</v>
+        <v>0.8436392561556381</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8948940010848653</v>
+        <v>0.8917668789977297</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8831010864895468</v>
+        <v>0.8824582990926511</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6782614502985741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7226318358690761</v>
+        <v>0.7226318358690762</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7304804579636835</v>
@@ -957,7 +957,7 @@
         <v>0.8785608332016804</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.730522573371272</v>
+        <v>0.7305225733712721</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7046441485807875</v>
@@ -969,7 +969,7 @@
         <v>0.747164205693015</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7265316477586808</v>
+        <v>0.7265316477586807</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6062313555281833</v>
+        <v>0.6081878935625</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6098950306396443</v>
+        <v>0.6216238209668687</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5647088538229172</v>
+        <v>0.5746395110732463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.623077921237854</v>
+        <v>0.6241728711046433</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6292712555183269</v>
+        <v>0.623290324370618</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4841175088608758</v>
+        <v>0.4886117373997403</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7585707577823537</v>
+        <v>0.762791835170651</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6468920307731068</v>
+        <v>0.6556223331516481</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6439772537841469</v>
+        <v>0.6403133442601018</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.612059935850796</v>
+        <v>0.6070374268584163</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6626461138383971</v>
+        <v>0.6592619443200859</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6605912043331608</v>
+        <v>0.6618330440006955</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7618479885523088</v>
+        <v>0.7616268620079024</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7919997213115267</v>
+        <v>0.7911265289678937</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7714415039210393</v>
+        <v>0.7754788685457455</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8048285562745799</v>
+        <v>0.8195679511154569</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8215663055104746</v>
+        <v>0.8246585796971763</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7845858869093918</v>
+        <v>0.7677701526757952</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9450653254708096</v>
+        <v>0.9556899380088563</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.804628834981426</v>
+        <v>0.8012340846786072</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7611457628827852</v>
+        <v>0.7620446921353746</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7627801392293909</v>
+        <v>0.7586906197942233</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8180403837213429</v>
+        <v>0.8130675857052514</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7843671762807853</v>
+        <v>0.7903898459649266</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.7421229615777911</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6494707173498127</v>
+        <v>0.6494707173498128</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7349612761958503</v>
@@ -1105,7 +1105,7 @@
         <v>0.6666491885804847</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6236270867157296</v>
+        <v>0.6236270867157295</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6217398963941357</v>
+        <v>0.6165748839821621</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5967327441820151</v>
+        <v>0.5959487093292183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4664325162151949</v>
+        <v>0.4690365636474482</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4856554097157008</v>
+        <v>0.4827250666428703</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5399635642728509</v>
+        <v>0.5368545183298415</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5043666493072821</v>
+        <v>0.4967380901168031</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5880792401735396</v>
+        <v>0.5870554701399515</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5558484311598042</v>
+        <v>0.542716291318459</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6438006329278049</v>
+        <v>0.6356492261161194</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6058995299778973</v>
+        <v>0.6005608527490817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5605771799590175</v>
+        <v>0.5708493234128248</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5457408891796469</v>
+        <v>0.5478395495031608</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8369106120375609</v>
+        <v>0.8321112929268749</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8604681524511534</v>
+        <v>0.8587957906064855</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7327179146914852</v>
+        <v>0.7369267474834131</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7159937318995342</v>
+        <v>0.7091756324040942</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8440335653586298</v>
+        <v>0.8588115627631028</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8080846998290788</v>
+        <v>0.8035351418868439</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8620095692977664</v>
+        <v>0.8599375536614834</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7555492533655851</v>
+        <v>0.7378397032681007</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8123407446233428</v>
+        <v>0.8083600822124752</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.798537814915137</v>
+        <v>0.8126256701534371</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7547241066829452</v>
+        <v>0.7574792427686319</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6947706992929359</v>
+        <v>0.692546895872035</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7485020607478976</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7501952948596753</v>
+        <v>0.7501952948596752</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7794578571851941</v>
@@ -1229,7 +1229,7 @@
         <v>0.8495516544384887</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.7751216349072314</v>
+        <v>0.7751216349072313</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7595840928127164</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7112782480957366</v>
+        <v>0.7072429394357618</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6967124577993591</v>
+        <v>0.6897429934117537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7016366819750836</v>
+        <v>0.7001433891035106</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.705731813863957</v>
+        <v>0.6956212144547802</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7254192725872813</v>
+        <v>0.7177327577425068</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7198352670758612</v>
+        <v>0.7165002072849801</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7960905089015456</v>
+        <v>0.7980931011079589</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7264626192785294</v>
+        <v>0.7343127447075947</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.72400084746952</v>
+        <v>0.7261050829676298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7200819481779706</v>
+        <v>0.7184969203590018</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.745857761862313</v>
+        <v>0.7525220912967815</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7287000313845631</v>
+        <v>0.7310043294278075</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7892653238315847</v>
+        <v>0.7868738769702831</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7919651429717014</v>
+        <v>0.7872585153202986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8000010312602527</v>
+        <v>0.7955732517251006</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8007777844363104</v>
+        <v>0.7940527521457857</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8283479674172423</v>
+        <v>0.8338607545681462</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8335914682581028</v>
+        <v>0.834614915704147</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8966126212754721</v>
+        <v>0.8950642832091905</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8121657423009924</v>
+        <v>0.8144204167192849</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7912102802791806</v>
+        <v>0.7899833629964365</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7949234653129765</v>
+        <v>0.7937887049012526</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8210143880640568</v>
+        <v>0.8218485615565937</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7926357754562325</v>
+        <v>0.7924405059948955</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>59803</v>
+        <v>59592</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>60454</v>
+        <v>61595</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>58558</v>
+        <v>59833</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>45048</v>
+        <v>45614</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>32634</v>
+        <v>32945</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>48164</v>
+        <v>47800</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>51656</v>
+        <v>51142</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>43512</v>
+        <v>43086</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>96265</v>
+        <v>96913</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>114964</v>
+        <v>115099</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>114873</v>
+        <v>113874</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>93508</v>
+        <v>93171</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>73811</v>
+        <v>74292</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>75759</v>
+        <v>76278</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>73810</v>
+        <v>74297</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>55272</v>
+        <v>55252</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42385</v>
+        <v>42475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>62012</v>
+        <v>61907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>60497</v>
+        <v>60461</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>54000</v>
+        <v>54172</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>114491</v>
+        <v>115300</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>135004</v>
+        <v>134726</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>132645</v>
+        <v>132319</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>107472</v>
+        <v>108421</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>120569</v>
+        <v>121563</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>53245</v>
+        <v>52473</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82149</v>
+        <v>83006</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>93991</v>
+        <v>94526</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>46694</v>
+        <v>47010</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>49109</v>
+        <v>49565</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>43847</v>
+        <v>44152</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>83381</v>
+        <v>82949</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>173772</v>
+        <v>174556</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>106968</v>
+        <v>106654</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>131956</v>
+        <v>132299</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>183108</v>
+        <v>183162</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>142888</v>
+        <v>143685</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>69206</v>
+        <v>68981</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>98813</v>
+        <v>99201</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>112655</v>
+        <v>112667</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>59459</v>
+        <v>59616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>60085</v>
+        <v>60107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>55971</v>
+        <v>56101</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>95932</v>
+        <v>95798</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>199579</v>
+        <v>199653</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>127015</v>
+        <v>126634</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>152192</v>
+        <v>151660</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>204675</v>
+        <v>204526</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>89046</v>
+        <v>89334</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>65920</v>
+        <v>67188</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>49759</v>
+        <v>50634</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>60214</v>
+        <v>60320</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>48947</v>
+        <v>48481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20674</v>
+        <v>20866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>35051</v>
+        <v>35246</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>61088</v>
+        <v>61912</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>144681</v>
+        <v>143858</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>92292</v>
+        <v>91535</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>89006</v>
+        <v>88551</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>126221</v>
+        <v>126458</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>111904</v>
+        <v>111872</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>85602</v>
+        <v>85508</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>67975</v>
+        <v>68331</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>77779</v>
+        <v>79203</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>63904</v>
+        <v>64144</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>33506</v>
+        <v>32788</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>43668</v>
+        <v>44159</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>75984</v>
+        <v>75663</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>171005</v>
+        <v>171207</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>115019</v>
+        <v>114402</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>109878</v>
+        <v>109210</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>149871</v>
+        <v>151022</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>42114</v>
+        <v>41764</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28697</v>
+        <v>28660</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>30852</v>
+        <v>31024</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>47823</v>
+        <v>47535</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16945</v>
+        <v>16848</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19466</v>
+        <v>19172</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27443</v>
+        <v>27396</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>45499</v>
+        <v>44424</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>63812</v>
+        <v>63004</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>52522</v>
+        <v>52060</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>63239</v>
+        <v>64398</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>98412</v>
+        <v>98790</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56689</v>
+        <v>56364</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41381</v>
+        <v>41300</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48465</v>
+        <v>48743</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>70505</v>
+        <v>69834</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26487</v>
+        <v>26951</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31188</v>
+        <v>31012</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>40227</v>
+        <v>40130</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>61845</v>
+        <v>60396</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>80518</v>
+        <v>80123</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>69221</v>
+        <v>70442</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>85140</v>
+        <v>85451</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>125286</v>
+        <v>124885</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>335356</v>
+        <v>333454</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>228211</v>
+        <v>225928</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>243591</v>
+        <v>243072</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>268485</v>
+        <v>264639</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>159680</v>
+        <v>157988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>153066</v>
+        <v>152357</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>172193</v>
+        <v>172626</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>246285</v>
+        <v>248947</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>500723</v>
+        <v>502178</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>388985</v>
+        <v>388128</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>420271</v>
+        <v>424026</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>524267</v>
+        <v>525925</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>372126</v>
+        <v>370998</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>259411</v>
+        <v>257870</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>277740</v>
+        <v>276203</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>304644</v>
+        <v>302085</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>182337</v>
+        <v>183550</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>177256</v>
+        <v>177473</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>193936</v>
+        <v>193601</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>275340</v>
+        <v>276105</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>547205</v>
+        <v>546356</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>429414</v>
+        <v>428801</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>462619</v>
+        <v>463089</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>570266</v>
+        <v>570125</v>
       </c>
     </row>
     <row r="24">
